--- a/gazdasag/2019/export3b.xlsx
+++ b/gazdasag/2019/export3b.xlsx
@@ -187,7 +187,7 @@
     <t>CLINI LAB</t>
   </si>
   <si>
-    <t>COATS ROMANIA</t>
+    <t>COATS</t>
   </si>
   <si>
     <t>COLOR METAL</t>
@@ -241,10 +241,10 @@
     <t>DARINA COM</t>
   </si>
   <si>
-    <t>DAW BENTA ROMANIA</t>
-  </si>
-  <si>
-    <t>DDCA ROMANIA</t>
+    <t>DAW BENTA</t>
+  </si>
+  <si>
+    <t>DDCA</t>
   </si>
   <si>
     <t>DELGAZ GRID</t>
@@ -274,7 +274,7 @@
     <t>DOMINIC OIL</t>
   </si>
   <si>
-    <t>DOMO WELLNESS ROMANIA</t>
+    <t>DOMO WELLNESS</t>
   </si>
   <si>
     <t>DUNAPACK RAMBOX PRODIMPEX</t>
@@ -283,7 +283,7 @@
     <t>DURKOPP ADLER</t>
   </si>
   <si>
-    <t>E.ON ENERGIE ROMANIA</t>
+    <t>E.ON ENERGIE</t>
   </si>
   <si>
     <t>E.ON GAZ FURNIZARE</t>
@@ -361,7 +361,7 @@
     <t>GEDEON RICHTER FARMACIA</t>
   </si>
   <si>
-    <t>GEDEON RICHTER ROMANIA</t>
+    <t>GEDEON RICHTER</t>
   </si>
   <si>
     <t>GEIGER TRANSILVANIA</t>
@@ -436,7 +436,7 @@
     <t>HELL ENERGY</t>
   </si>
   <si>
-    <t>HIRSCHMANN ROMANIA</t>
+    <t>HIRSCHMANN</t>
   </si>
   <si>
     <t>HOME LAND FACTORY</t>
@@ -511,7 +511,7 @@
     <t>IZSO UNIVERSAL COM</t>
   </si>
   <si>
-    <t>JULIUS MEINL ROMANIA</t>
+    <t>JULIUS MEINL</t>
   </si>
   <si>
     <t>KARLO ROBERTO TRADE COM</t>
@@ -652,7 +652,7 @@
     <t>OREX IMPORT EXPORT</t>
   </si>
   <si>
-    <t>ORTOPROFIL PROD ROMANIA</t>
+    <t>ORTOPROFIL PROD</t>
   </si>
   <si>
     <t>OZR FRUIT</t>
@@ -661,7 +661,7 @@
     <t>P &amp; P MIXT</t>
   </si>
   <si>
-    <t>PACCOR ROMANIA</t>
+    <t>PACCOR</t>
   </si>
   <si>
     <t>PALAS COM</t>
@@ -721,7 +721,7 @@
     <t>RAPID FOREST</t>
   </si>
   <si>
-    <t>READY GARMENT TECHNOLOGY ROMANIA</t>
+    <t>READY GARMENT TECHNOLOGY</t>
   </si>
   <si>
     <t>RENANIA TRADE</t>
@@ -898,7 +898,7 @@
     <t>VIASTRADA</t>
   </si>
   <si>
-    <t>WABERER S ROMANIA</t>
+    <t>WABERER S</t>
   </si>
   <si>
     <t>WALOR RO</t>
